--- a/Compulsary_1.xlsx
+++ b/Compulsary_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sondr\Documents\DAT158\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\DAT155\DAT158_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489CF27-0512-49B2-B002-7D54D4942E8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5463693-B3F2-4634-B074-2B2A5DB7DEC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9E6D6CA-E244-46A6-8CDC-77FDB0819188}"/>
+    <workbookView xWindow="4350" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{A9E6D6CA-E244-46A6-8CDC-77FDB0819188}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="20">
   <si>
     <t>Oppgåve 1</t>
   </si>
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +147,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,11 +168,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -168,6 +195,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,21 +562,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450760C0-B50C-4BDB-9513-C279125BEA29}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -608,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -628,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -648,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>1</v>
       </c>
@@ -668,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -688,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>1</v>
       </c>
@@ -708,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="4"/>
       <c r="I9" s="2" t="s">
         <v>1</v>
@@ -729,12 +758,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -775,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -795,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -815,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
@@ -835,12 +864,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -881,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -901,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -921,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="6" t="s">
         <v>1</v>
       </c>
@@ -941,12 +970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -954,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -962,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -970,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -978,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1058,45 +1087,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>-1</v>
       </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B62">
+      <c r="D61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
         <v>-1</v>
       </c>
       <c r="C62">
@@ -1127,8 +1156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C63">
@@ -1159,18 +1188,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1191,24 +1220,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -1223,8 +1252,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C66">
@@ -1234,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -1255,8 +1284,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C67">
@@ -1266,29 +1295,29 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-      <c r="G67">
-        <v>5</v>
-      </c>
       <c r="H67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C68">
@@ -1301,118 +1330,118 @@
         <v>2</v>
       </c>
       <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
         <v>4</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>5</v>
       </c>
-      <c r="H68">
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
         <v>6</v>
       </c>
-      <c r="I68">
+      <c r="K69">
         <v>6</v>
       </c>
-      <c r="J68">
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
         <v>6</v>
       </c>
-      <c r="K68">
+      <c r="K70">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
         <v>4</v>
       </c>
-      <c r="G69">
+      <c r="H71">
         <v>5</v>
       </c>
-      <c r="H69">
+      <c r="I71">
         <v>6</v>
       </c>
-      <c r="I69">
+      <c r="J71">
         <v>6</v>
       </c>
-      <c r="J69">
+      <c r="K71" s="8">
         <v>7</v>
-      </c>
-      <c r="K69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <v>5</v>
-      </c>
-      <c r="H70">
-        <v>6</v>
-      </c>
-      <c r="I70">
-        <v>6</v>
-      </c>
-      <c r="J70">
-        <v>7</v>
-      </c>
-      <c r="K70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
-      </c>
-      <c r="H71">
-        <v>6</v>
-      </c>
-      <c r="I71">
-        <v>7</v>
-      </c>
-      <c r="J71">
-        <v>7</v>
-      </c>
-      <c r="K71">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
